--- a/Excel/update2.xlsx
+++ b/Excel/update2.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1101 Unqualified" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="1102 Unqualified" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1103 Unqualified" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="1109 Unqualified" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,11 +36,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,12 +57,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,11 +113,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,7 +254,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -273,7 +269,7 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -320,7 +316,49 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>17021280</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>17021237</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
